--- a/ExcelFile/TestCaseReport.xlsx
+++ b/ExcelFile/TestCaseReport.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Manjunath_Rajeev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11700" windowHeight="2415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,34 +24,1642 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>cbtcrowd002@gmail.com</t>
-  </si>
-  <si>
-    <t>cbt_crowd_002</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>manjunathr.2599</t>
-  </si>
-  <si>
-    <t>9916071582</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="536">
+  <si>
+    <t>Login1</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>testId</t>
+  </si>
+  <si>
+    <t>Login3</t>
+  </si>
+  <si>
+    <t>Login4</t>
+  </si>
+  <si>
+    <t>Login5</t>
+  </si>
+  <si>
+    <t>Login6</t>
+  </si>
+  <si>
+    <t>Login7</t>
+  </si>
+  <si>
+    <t>Login8</t>
+  </si>
+  <si>
+    <t>Login9</t>
+  </si>
+  <si>
+    <t>Login10</t>
+  </si>
+  <si>
+    <t>Login11</t>
+  </si>
+  <si>
+    <t>Login12</t>
+  </si>
+  <si>
+    <t>Login13</t>
+  </si>
+  <si>
+    <t>Login14</t>
+  </si>
+  <si>
+    <t>Login15</t>
+  </si>
+  <si>
+    <t>Login16</t>
+  </si>
+  <si>
+    <t>Login17</t>
+  </si>
+  <si>
+    <t>Login18</t>
+  </si>
+  <si>
+    <t>Login19</t>
+  </si>
+  <si>
+    <t>Login20</t>
+  </si>
+  <si>
+    <t>Login21</t>
+  </si>
+  <si>
+    <t>Login22</t>
+  </si>
+  <si>
+    <t>Login23</t>
+  </si>
+  <si>
+    <t>Login24</t>
+  </si>
+  <si>
+    <t>Login25</t>
+  </si>
+  <si>
+    <t>Login26</t>
+  </si>
+  <si>
+    <t>Login27</t>
+  </si>
+  <si>
+    <t>Login28</t>
+  </si>
+  <si>
+    <t>Login29</t>
+  </si>
+  <si>
+    <t>Login30</t>
+  </si>
+  <si>
+    <t>Login31</t>
+  </si>
+  <si>
+    <t>Login32</t>
+  </si>
+  <si>
+    <t>Login33</t>
+  </si>
+  <si>
+    <t>Login34</t>
+  </si>
+  <si>
+    <t>Login35</t>
+  </si>
+  <si>
+    <t>Login36</t>
+  </si>
+  <si>
+    <t>Login37</t>
+  </si>
+  <si>
+    <t>Login38</t>
+  </si>
+  <si>
+    <t>cbtcrowd142@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd143@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd147@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd148@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd149@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_149</t>
+  </si>
+  <si>
+    <t>cbtcrowd150@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_150</t>
+  </si>
+  <si>
+    <t>cbtcrowd151@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_151</t>
+  </si>
+  <si>
+    <t>cbtcrowd152@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_152</t>
+  </si>
+  <si>
+    <t>cbtcrowd153@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_153</t>
+  </si>
+  <si>
+    <t>cbtcrowd154@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_154</t>
+  </si>
+  <si>
+    <t>cbtcrowd155@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_155</t>
+  </si>
+  <si>
+    <t>cbtcrowd156@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_156</t>
+  </si>
+  <si>
+    <t>cbtcrowd157@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_157</t>
+  </si>
+  <si>
+    <t>cbtcrowd158@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_158</t>
+  </si>
+  <si>
+    <t>cbtcrowd159@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_159</t>
+  </si>
+  <si>
+    <t>cbtcrowd160@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_160</t>
+  </si>
+  <si>
+    <t>cbtcrowd161@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_161</t>
+  </si>
+  <si>
+    <t>cbtcrowd162@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_162</t>
+  </si>
+  <si>
+    <t>cbtcrowd163@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_163</t>
+  </si>
+  <si>
+    <t>cbtcrowd164@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_164</t>
+  </si>
+  <si>
+    <t>cbtcrowd165@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_165</t>
+  </si>
+  <si>
+    <t>cbtcrowd166@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_166</t>
+  </si>
+  <si>
+    <t>cbtcrowd170@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_170</t>
+  </si>
+  <si>
+    <t>cbtcrowd171@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_171</t>
+  </si>
+  <si>
+    <t>cbtcrowd172@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_172</t>
+  </si>
+  <si>
+    <t>cbtcrowd173@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_173</t>
+  </si>
+  <si>
+    <t>cbtcrowd174@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_174</t>
+  </si>
+  <si>
+    <t>cbtcrowd175@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_175</t>
+  </si>
+  <si>
+    <t>cbtcrowd176@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_176</t>
+  </si>
+  <si>
+    <t>cbtcrowd177@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_177</t>
+  </si>
+  <si>
+    <t>cbtcrowd178@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_178</t>
+  </si>
+  <si>
+    <t>cbtcrowd182@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_182</t>
+  </si>
+  <si>
+    <t>cbtcrowd183@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_183</t>
+  </si>
+  <si>
+    <t>cbtcrowd184@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_184</t>
+  </si>
+  <si>
+    <t>cbtcrowd185@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_185</t>
+  </si>
+  <si>
+    <t>cbtcrowd186@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_186</t>
+  </si>
+  <si>
+    <t>cbtcrowd189@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_189</t>
+  </si>
+  <si>
+    <t>cbtcrowd190@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_190</t>
+  </si>
+  <si>
+    <t>cbtcrowd191@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_191</t>
+  </si>
+  <si>
+    <t>cbtcrowd192@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_192</t>
+  </si>
+  <si>
+    <t>cbtcrowd193@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_193</t>
+  </si>
+  <si>
+    <t>cbtcrowd194@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_194</t>
+  </si>
+  <si>
+    <t>cbtcrowd195@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_195</t>
+  </si>
+  <si>
+    <t>cbtcrowd196@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_196</t>
+  </si>
+  <si>
+    <t>cbtcrowd197@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_197</t>
+  </si>
+  <si>
+    <t>cbtcrowd200@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_200</t>
+  </si>
+  <si>
+    <t>cbtcrowd201@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_201</t>
+  </si>
+  <si>
+    <t>cbtcrowd202@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_202</t>
+  </si>
+  <si>
+    <t>cbtcrowd203@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_203</t>
+  </si>
+  <si>
+    <t>cbtcrowd204@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_204</t>
+  </si>
+  <si>
+    <t>cbtcrowd205@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_205</t>
+  </si>
+  <si>
+    <t>cbtcrowd206@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_206</t>
+  </si>
+  <si>
+    <t>cbtcrowd207@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_207</t>
+  </si>
+  <si>
+    <t>cbtcrowd208@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_208</t>
+  </si>
+  <si>
+    <t>Login39</t>
+  </si>
+  <si>
+    <t>Login40</t>
+  </si>
+  <si>
+    <t>Login41</t>
+  </si>
+  <si>
+    <t>Login42</t>
+  </si>
+  <si>
+    <t>Login43</t>
+  </si>
+  <si>
+    <t>Login44</t>
+  </si>
+  <si>
+    <t>Login45</t>
+  </si>
+  <si>
+    <t>Login46</t>
+  </si>
+  <si>
+    <t>Login47</t>
+  </si>
+  <si>
+    <t>Login48</t>
+  </si>
+  <si>
+    <t>Login49</t>
+  </si>
+  <si>
+    <t>Login50</t>
+  </si>
+  <si>
+    <t>Login51</t>
+  </si>
+  <si>
+    <t>Login52</t>
+  </si>
+  <si>
+    <t>Login53</t>
+  </si>
+  <si>
+    <t>Login54</t>
+  </si>
+  <si>
+    <t>Login55</t>
+  </si>
+  <si>
+    <t>Login56</t>
+  </si>
+  <si>
+    <t>Login57</t>
+  </si>
+  <si>
+    <t>Login58</t>
+  </si>
+  <si>
+    <t>cbt@1234</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>cbtcrowd144@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd145@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd146@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd141@gmail.com</t>
+  </si>
+  <si>
+    <t>crowdbeta010</t>
+  </si>
+  <si>
+    <t>crowdbeta012</t>
+  </si>
+  <si>
+    <t>crowdbeta013</t>
+  </si>
+  <si>
+    <t>crowdbeta014</t>
+  </si>
+  <si>
+    <t>crowdbeta015</t>
+  </si>
+  <si>
+    <t>crowdbeta016</t>
+  </si>
+  <si>
+    <t>crowdbeta017</t>
+  </si>
+  <si>
+    <t>crowdbeta018</t>
+  </si>
+  <si>
+    <t>crowdbeta019</t>
+  </si>
+  <si>
+    <t>crowdbeta021</t>
+  </si>
+  <si>
+    <t>crowdbeta023</t>
+  </si>
+  <si>
+    <t>crowdbeta024</t>
+  </si>
+  <si>
+    <t>crowdbeta025</t>
+  </si>
+  <si>
+    <t>crowdbeta026</t>
+  </si>
+  <si>
+    <t>crowdbeta031</t>
+  </si>
+  <si>
+    <t>crowdbeta033</t>
+  </si>
+  <si>
+    <t>crowdbeta034</t>
+  </si>
+  <si>
+    <t>crowdbeta035</t>
+  </si>
+  <si>
+    <t>crowdbeta036</t>
+  </si>
+  <si>
+    <t>crowdbeta038</t>
+  </si>
+  <si>
+    <t>crowdbeta039</t>
+  </si>
+  <si>
+    <t>cbt_crowd_040</t>
+  </si>
+  <si>
+    <t>cbt_crowd_041</t>
+  </si>
+  <si>
+    <t>cbtcrowd042@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_042</t>
+  </si>
+  <si>
+    <t>cbtcrowd043@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_043</t>
+  </si>
+  <si>
+    <t>cbtcrowd044@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_044</t>
+  </si>
+  <si>
+    <t>cbtcrowd045@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_045</t>
+  </si>
+  <si>
+    <t>cbtcrowd046@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_046</t>
+  </si>
+  <si>
+    <t>cbtcrowd047@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_047</t>
+  </si>
+  <si>
+    <t>cbtcrowd048@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_048</t>
+  </si>
+  <si>
+    <t>cbtcrowd049@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_049</t>
+  </si>
+  <si>
+    <t>cbtcrowd050@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_050</t>
+  </si>
+  <si>
+    <t>cbtcrowd051@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_051</t>
+  </si>
+  <si>
+    <t>cbtcrowd052@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_052</t>
+  </si>
+  <si>
+    <t>cbtcrowd053@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_053</t>
+  </si>
+  <si>
+    <t>cbtcrowd054@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_054</t>
+  </si>
+  <si>
+    <t>cbtcrowd055@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_055</t>
+  </si>
+  <si>
+    <t>cbtcrowd056@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_056</t>
+  </si>
+  <si>
+    <t>cbtcrowd057@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_057</t>
+  </si>
+  <si>
+    <t>cbtcrowd058@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_058</t>
+  </si>
+  <si>
+    <t>cbtcrowd059@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_059</t>
+  </si>
+  <si>
+    <t>cbtcrowd060@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_060</t>
+  </si>
+  <si>
+    <t>cbtcrowd061@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_061</t>
+  </si>
+  <si>
+    <t>cbtcrowd062@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_062</t>
+  </si>
+  <si>
+    <t>cbtcrowd063@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_063</t>
+  </si>
+  <si>
+    <t>cbtcrowd064@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_064</t>
+  </si>
+  <si>
+    <t>cbtcrowd065@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_065</t>
+  </si>
+  <si>
+    <t>cbtcrowd066@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_066</t>
+  </si>
+  <si>
+    <t>cbtcrowd067@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_067</t>
+  </si>
+  <si>
+    <t>cbtcrowd068@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_068</t>
+  </si>
+  <si>
+    <t>cbtcrowd069@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_069</t>
+  </si>
+  <si>
+    <t>cbtcrowd070@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_070</t>
+  </si>
+  <si>
+    <t>cbtcrowd071@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_071</t>
+  </si>
+  <si>
+    <t>cbtcrowd072@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_072</t>
+  </si>
+  <si>
+    <t>cbtcrowd073@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_073</t>
+  </si>
+  <si>
+    <t>cbtcrowd074@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_074</t>
+  </si>
+  <si>
+    <t>cbtcrowd075@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_075</t>
+  </si>
+  <si>
+    <t>cbt_crowd_076</t>
+  </si>
+  <si>
+    <t>cbtcrowd077@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_077</t>
+  </si>
+  <si>
+    <t>crowdbeta078@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_078</t>
+  </si>
+  <si>
+    <t>crowdbeta079@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_079</t>
+  </si>
+  <si>
+    <t>cbtcrowd081@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_081</t>
+  </si>
+  <si>
+    <t>cbtcrowd082@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_082</t>
+  </si>
+  <si>
+    <t>cbtcrowd083@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_083</t>
+  </si>
+  <si>
+    <t>cbtcrowd084@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_084</t>
+  </si>
+  <si>
+    <t>cbtcrowd085@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_085</t>
+  </si>
+  <si>
+    <t>cbtcrowd086@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_086</t>
+  </si>
+  <si>
+    <t>cbtcrowd087@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_087</t>
+  </si>
+  <si>
+    <t>cbtcrowd088@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_088</t>
+  </si>
+  <si>
+    <t>cbtcrowd089@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_089</t>
+  </si>
+  <si>
+    <t>cbtcrowd090@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_090</t>
+  </si>
+  <si>
+    <t>cbtcrowd091@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_091</t>
+  </si>
+  <si>
+    <t>cbtcrowd092@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_092</t>
+  </si>
+  <si>
+    <t>cbtcrowd093@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_093</t>
+  </si>
+  <si>
+    <t>cbtcrowd094@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_094</t>
+  </si>
+  <si>
+    <t>cbtcrowd095@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_095</t>
+  </si>
+  <si>
+    <t>cbtcrowd096@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_096</t>
+  </si>
+  <si>
+    <t>cbtcrowd097@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_097</t>
+  </si>
+  <si>
+    <t>cbtcrowd098@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_098</t>
+  </si>
+  <si>
+    <t>cbtcrowd099@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_099</t>
+  </si>
+  <si>
+    <t>cbtcrowd100@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_100</t>
+  </si>
+  <si>
+    <t>cbtcrowd101@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_101</t>
+  </si>
+  <si>
+    <t>cbtcrowd103@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_103</t>
+  </si>
+  <si>
+    <t>cbtcrowd104@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_104</t>
+  </si>
+  <si>
+    <t>cbtcrowd105@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_105</t>
+  </si>
+  <si>
+    <t>cbtcrowd106@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_106</t>
+  </si>
+  <si>
+    <t>cbtcrowd107@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_107</t>
+  </si>
+  <si>
+    <t>cbtcrowd108@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_108</t>
+  </si>
+  <si>
+    <t>cbtcrowd109@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_109</t>
+  </si>
+  <si>
+    <t>cbtcrowd110@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_110</t>
+  </si>
+  <si>
+    <t>cbtcrowd111@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_111</t>
+  </si>
+  <si>
+    <t>cbtcrowd112@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_112</t>
+  </si>
+  <si>
+    <t>cbtcrowd113@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_113</t>
+  </si>
+  <si>
+    <t>cbtcrowd115@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_115</t>
+  </si>
+  <si>
+    <t>cbtcrowd116@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_116</t>
+  </si>
+  <si>
+    <t>cbtcrowd117@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_117</t>
+  </si>
+  <si>
+    <t>cbtcrowd118@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_118</t>
+  </si>
+  <si>
+    <t>cbtcrowd119@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_119</t>
+  </si>
+  <si>
+    <t>cbtcrowd120@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_120</t>
+  </si>
+  <si>
+    <t>cbtcrowd121@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_121</t>
+  </si>
+  <si>
+    <t>cbtcrowd122@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_122</t>
+  </si>
+  <si>
+    <t>cbtcrowd123@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_123</t>
+  </si>
+  <si>
+    <t>cbtcrowd124@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_124</t>
+  </si>
+  <si>
+    <t>cbtcrowd125@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_125</t>
+  </si>
+  <si>
+    <t>cbtcrowd126@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_126</t>
+  </si>
+  <si>
+    <t>cbtcrowd127@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_127</t>
+  </si>
+  <si>
+    <t>cbtcrowd128@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_128</t>
+  </si>
+  <si>
+    <t>cbtcrowd129@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_129</t>
+  </si>
+  <si>
+    <t>cbtcrowd130@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_130</t>
+  </si>
+  <si>
+    <t>cbtcrowd131@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_131</t>
+  </si>
+  <si>
+    <t>cbtcrowd132@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_132</t>
+  </si>
+  <si>
+    <t>cbtcrowd134@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_134</t>
+  </si>
+  <si>
+    <t>cbtcrowd135@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_135</t>
+  </si>
+  <si>
+    <t>cbtcrowd136@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_136</t>
+  </si>
+  <si>
+    <t>cbtcrowd137@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_137</t>
+  </si>
+  <si>
+    <t>cbtcrowd138@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_138</t>
+  </si>
+  <si>
+    <t>cbtcrowd139@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_139</t>
+  </si>
+  <si>
+    <t>cbtcrowd140@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_140</t>
+  </si>
+  <si>
+    <t>Login59</t>
+  </si>
+  <si>
+    <t>Login60</t>
+  </si>
+  <si>
+    <t>Login61</t>
+  </si>
+  <si>
+    <t>Login62</t>
+  </si>
+  <si>
+    <t>Login63</t>
+  </si>
+  <si>
+    <t>Login64</t>
+  </si>
+  <si>
+    <t>Login65</t>
+  </si>
+  <si>
+    <t>Login66</t>
+  </si>
+  <si>
+    <t>Login67</t>
+  </si>
+  <si>
+    <t>Login68</t>
+  </si>
+  <si>
+    <t>Login69</t>
+  </si>
+  <si>
+    <t>Login70</t>
+  </si>
+  <si>
+    <t>Login71</t>
+  </si>
+  <si>
+    <t>Login72</t>
+  </si>
+  <si>
+    <t>Login73</t>
+  </si>
+  <si>
+    <t>Login74</t>
+  </si>
+  <si>
+    <t>Login75</t>
+  </si>
+  <si>
+    <t>Login76</t>
+  </si>
+  <si>
+    <t>Login77</t>
+  </si>
+  <si>
+    <t>Login78</t>
+  </si>
+  <si>
+    <t>Login79</t>
+  </si>
+  <si>
+    <t>Login80</t>
+  </si>
+  <si>
+    <t>Login81</t>
+  </si>
+  <si>
+    <t>Login82</t>
+  </si>
+  <si>
+    <t>Login83</t>
+  </si>
+  <si>
+    <t>Login84</t>
+  </si>
+  <si>
+    <t>Login85</t>
+  </si>
+  <si>
+    <t>Login86</t>
+  </si>
+  <si>
+    <t>Login87</t>
+  </si>
+  <si>
+    <t>Login88</t>
+  </si>
+  <si>
+    <t>Login89</t>
+  </si>
+  <si>
+    <t>Login90</t>
+  </si>
+  <si>
+    <t>Login91</t>
+  </si>
+  <si>
+    <t>Login92</t>
+  </si>
+  <si>
+    <t>Login93</t>
+  </si>
+  <si>
+    <t>Login94</t>
+  </si>
+  <si>
+    <t>Login95</t>
+  </si>
+  <si>
+    <t>Login96</t>
+  </si>
+  <si>
+    <t>Login97</t>
+  </si>
+  <si>
+    <t>Login98</t>
+  </si>
+  <si>
+    <t>Login99</t>
+  </si>
+  <si>
+    <t>Login100</t>
+  </si>
+  <si>
+    <t>Login101</t>
+  </si>
+  <si>
+    <t>Login102</t>
+  </si>
+  <si>
+    <t>Login103</t>
+  </si>
+  <si>
+    <t>Login104</t>
+  </si>
+  <si>
+    <t>Login105</t>
+  </si>
+  <si>
+    <t>Login106</t>
+  </si>
+  <si>
+    <t>Login107</t>
+  </si>
+  <si>
+    <t>Login108</t>
+  </si>
+  <si>
+    <t>Login109</t>
+  </si>
+  <si>
+    <t>Login110</t>
+  </si>
+  <si>
+    <t>Login111</t>
+  </si>
+  <si>
+    <t>Login112</t>
+  </si>
+  <si>
+    <t>Login113</t>
+  </si>
+  <si>
+    <t>Login114</t>
+  </si>
+  <si>
+    <t>Login115</t>
+  </si>
+  <si>
+    <t>Login116</t>
+  </si>
+  <si>
+    <t>Login117</t>
+  </si>
+  <si>
+    <t>Login118</t>
+  </si>
+  <si>
+    <t>Login119</t>
+  </si>
+  <si>
+    <t>cbtcrowd010@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd023@gmail.com</t>
+  </si>
+  <si>
+    <t>Login120</t>
+  </si>
+  <si>
+    <t>Login121</t>
+  </si>
+  <si>
+    <t>Login122</t>
+  </si>
+  <si>
+    <t>Login123</t>
+  </si>
+  <si>
+    <t>Login124</t>
+  </si>
+  <si>
+    <t>Login125</t>
+  </si>
+  <si>
+    <t>Login126</t>
+  </si>
+  <si>
+    <t>Login127</t>
+  </si>
+  <si>
+    <t>Login128</t>
+  </si>
+  <si>
+    <t>Login129</t>
+  </si>
+  <si>
+    <t>Login130</t>
+  </si>
+  <si>
+    <t>Login131</t>
+  </si>
+  <si>
+    <t>Login132</t>
+  </si>
+  <si>
+    <t>Login133</t>
+  </si>
+  <si>
+    <t>Login134</t>
+  </si>
+  <si>
+    <t>Login135</t>
+  </si>
+  <si>
+    <t>Login136</t>
+  </si>
+  <si>
+    <t>Login137</t>
+  </si>
+  <si>
+    <t>Login138</t>
+  </si>
+  <si>
+    <t>Login139</t>
+  </si>
+  <si>
+    <t>Login140</t>
+  </si>
+  <si>
+    <t>Login141</t>
+  </si>
+  <si>
+    <t>Login142</t>
+  </si>
+  <si>
+    <t>Login143</t>
+  </si>
+  <si>
+    <t>Login144</t>
+  </si>
+  <si>
+    <t>Login145</t>
+  </si>
+  <si>
+    <t>Login146</t>
+  </si>
+  <si>
+    <t>Login147</t>
+  </si>
+  <si>
+    <t>Login148</t>
+  </si>
+  <si>
+    <t>Login149</t>
+  </si>
+  <si>
+    <t>Login150</t>
+  </si>
+  <si>
+    <t>Login151</t>
+  </si>
+  <si>
+    <t>Login152</t>
+  </si>
+  <si>
+    <t>Login153</t>
+  </si>
+  <si>
+    <t>Login154</t>
+  </si>
+  <si>
+    <t>Login155</t>
+  </si>
+  <si>
+    <t>Login156</t>
+  </si>
+  <si>
+    <t>Login157</t>
+  </si>
+  <si>
+    <t>Login158</t>
+  </si>
+  <si>
+    <t>Login159</t>
+  </si>
+  <si>
+    <t>Login160</t>
+  </si>
+  <si>
+    <t>Login161</t>
+  </si>
+  <si>
+    <t>Login162</t>
+  </si>
+  <si>
+    <t>Login163</t>
+  </si>
+  <si>
+    <t>Login164</t>
+  </si>
+  <si>
+    <t>Login165</t>
+  </si>
+  <si>
+    <t>Login166</t>
+  </si>
+  <si>
+    <t>Login167</t>
+  </si>
+  <si>
+    <t>Login168</t>
+  </si>
+  <si>
+    <t>Login169</t>
+  </si>
+  <si>
+    <t>Login170</t>
+  </si>
+  <si>
+    <t>Login171</t>
+  </si>
+  <si>
+    <t>Login172</t>
+  </si>
+  <si>
+    <t>Login173</t>
+  </si>
+  <si>
+    <t>Login174</t>
+  </si>
+  <si>
+    <t>Login175</t>
+  </si>
+  <si>
+    <t>Login176</t>
+  </si>
+  <si>
+    <t>Login177</t>
+  </si>
+  <si>
+    <t>cbtcrowd041@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd040@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd039@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd038@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd036@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd035@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd034@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd033@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd031@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd026@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd025@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd024@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd021@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd019@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd018@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd017@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd016@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd015@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd014@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd013@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd012@gmail.com</t>
+  </si>
+  <si>
+    <t>cbtcrowd076@gmail.com</t>
+  </si>
+  <si>
+    <t>cbt_crowd_141</t>
+  </si>
+  <si>
+    <t>cbt_crowd_142</t>
+  </si>
+  <si>
+    <t>cbt_crowd_143</t>
+  </si>
+  <si>
+    <t>cbt_crowd_144</t>
+  </si>
+  <si>
+    <t>cbt_crowd_145</t>
+  </si>
+  <si>
+    <t>cbt_crowd_146</t>
+  </si>
+  <si>
+    <t>cbt_crowd_147</t>
+  </si>
+  <si>
+    <t>cbt_crowd_148</t>
+  </si>
+  <si>
+    <t>PASSWORD CHANGED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -57,16 +1669,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -89,15 +1719,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,50 +2099,2711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="G2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="G120" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="G121" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="G122" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="G123" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="G124" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="G125" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="G126" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="G127" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E159" s="10"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="10"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="10"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" s="10"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="cbtcrowd001@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>